--- a/StudentAdmissionProcess.xlsx
+++ b/StudentAdmissionProcess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A563AD-5855-4171-8812-7C084604171E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C01DD-A12D-468A-80D3-0902619CA18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,7 +113,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -123,6 +123,107 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -131,15 +232,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,81 +611,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F7FB8-92C1-45B8-B9F8-E2E3A8A913D0}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
